--- a/biology/Botanique/Lillet/Lillet.xlsx
+++ b/biology/Botanique/Lillet/Lillet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Lillet est un apéritif à base de vin produit à Podensac, près de Bordeaux. Il est à base de 85 % de vins, 15 % de liqueurs de fruits et du quinquina. Les liqueurs de fruits sont obtenues en laissant macérer pendant plusieurs semaines dans de l'alcool des écorces de fruits, comme l'orange douce (Maroc, Espagne) et l'orange amère (Haïti, Pérou). Il est élevé de manière traditionnelle en fûts de chêne. La marque appartient au groupe Pernod Ricard.
